--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_259__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_259__Reeval_Sobol_Modell_1.3.xlsx
@@ -6157,7 +6157,7 @@
                   <c:v>90.5010986328125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.66313552856445</c:v>
+                  <c:v>38.66313171386719</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>92.51534271240234</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>79.94667053222656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.84435272216797</c:v>
+                  <c:v>44.8443489074707</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>81.94290924072266</c:v>
@@ -6190,7 +6190,7 @@
                   <c:v>42.73870468139648</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.22447967529297</c:v>
+                  <c:v>80.22449493408203</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>63.37411117553711</c:v>
@@ -6199,7 +6199,7 @@
                   <c:v>77.2935791015625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77.18409729003906</c:v>
+                  <c:v>77.18410491943359</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>79.69036102294922</c:v>
@@ -6214,10 +6214,10 @@
                   <c:v>90.64839172363281</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80.47451782226562</c:v>
+                  <c:v>80.47452545166016</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>81.96829223632812</c:v>
+                  <c:v>81.96829986572266</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>83.64306640625</c:v>
@@ -6226,13 +6226,13 @@
                   <c:v>66.93789672851562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.63004302978516</c:v>
+                  <c:v>80.63005065917969</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>75.75643157958984</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75.48166656494141</c:v>
+                  <c:v>75.48167419433594</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>33.73813247680664</c:v>
@@ -6250,16 +6250,16 @@
                   <c:v>54.66623306274414</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>79.7000732421875</c:v>
+                  <c:v>79.70008087158203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>73.14018249511719</c:v>
+                  <c:v>73.14019012451172</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>99.94266510009766</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.35703659057617</c:v>
+                  <c:v>47.35703277587891</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>88.78176116943359</c:v>
@@ -6283,13 +6283,13 @@
                   <c:v>79.84210968017578</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>71.00537109375</c:v>
+                  <c:v>71.00537872314453</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>52.21726226806641</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>67.33001708984375</c:v>
+                  <c:v>67.33002471923828</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>77.74636840820312</c:v>
@@ -6310,7 +6310,7 @@
                   <c:v>77.01431274414062</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43.92538452148438</c:v>
+                  <c:v>43.92538070678711</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>80.25003814697266</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>89.38105773925781</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>78.81365203857422</c:v>
+                  <c:v>78.81365966796875</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>86.63828277587891</c:v>
@@ -6334,13 +6334,13 @@
                   <c:v>70.83799743652344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26.87680435180664</c:v>
+                  <c:v>26.87679862976074</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>88.8614501953125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>73.71951293945312</c:v>
+                  <c:v>73.71952056884766</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>90.20106506347656</c:v>
@@ -6361,7 +6361,7 @@
                   <c:v>61.09384155273438</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77.33201599121094</c:v>
+                  <c:v>77.33202362060547</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>83.16943359375</c:v>
@@ -6370,10 +6370,10 @@
                   <c:v>69.78774261474609</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.59663772583008</c:v>
+                  <c:v>20.59663391113281</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32.23160934448242</c:v>
+                  <c:v>32.23160552978516</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>97.12092590332031</c:v>
@@ -6394,10 +6394,10 @@
                   <c:v>79.91449737548828</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>81.51856994628906</c:v>
+                  <c:v>81.51857757568359</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>49.21860504150391</c:v>
+                  <c:v>49.21860122680664</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>67.5513916015625</c:v>
@@ -6409,7 +6409,7 @@
                   <c:v>84.71338653564453</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30.94897079467773</c:v>
+                  <c:v>30.94896507263184</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>82.02362060546875</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>67.89673614501953</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>73.33557891845703</c:v>
+                  <c:v>73.33558654785156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>38.66313552856445</v>
+        <v>38.66313171386719</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>44.84435272216797</v>
+        <v>44.8443489074707</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>79.8796</v>
       </c>
       <c r="F26">
-        <v>80.22447967529297</v>
+        <v>80.22449493408203</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>77.18409729003906</v>
+        <v>77.18410491943359</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>80.47451782226562</v>
+        <v>80.47452545166016</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>81.96829223632812</v>
+        <v>81.96829986572266</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>83.1935</v>
       </c>
       <c r="F38">
-        <v>80.63004302978516</v>
+        <v>80.63005065917969</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>75.6026</v>
       </c>
       <c r="F40">
-        <v>75.48166656494141</v>
+        <v>75.48167419433594</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>79.7000732421875</v>
+        <v>79.70008087158203</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>75.5748</v>
       </c>
       <c r="F47">
-        <v>73.14018249511719</v>
+        <v>73.14019012451172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>47.35703659057617</v>
+        <v>47.35703277587891</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>71.00537109375</v>
+        <v>71.00537872314453</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>67.33001708984375</v>
+        <v>67.33002471923828</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>43.92538452148438</v>
+        <v>43.92538070678711</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>78.81365203857422</v>
+        <v>78.81365966796875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>26.87680435180664</v>
+        <v>26.87679862976074</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>71.3847</v>
       </c>
       <c r="F76">
-        <v>73.71951293945312</v>
+        <v>73.71952056884766</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>77.33201599121094</v>
+        <v>77.33202362060547</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>20.59663772583008</v>
+        <v>20.59663391113281</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>32.23160934448242</v>
+        <v>32.23160552978516</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>79.09650000000001</v>
       </c>
       <c r="F94">
-        <v>81.51856994628906</v>
+        <v>81.51857757568359</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>49.21860504150391</v>
+        <v>49.21860122680664</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>30.94897079467773</v>
+        <v>30.94896507263184</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>66.7792</v>
       </c>
       <c r="F104">
-        <v>73.33557891845703</v>
+        <v>73.33558654785156</v>
       </c>
     </row>
     <row r="105" spans="1:6">
